--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 10:11:07</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:23:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:23:16</t>
+    <t>Informação extraída do SIGBM: 04/01/2023 - 11:51:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/01/2023 - 11:51:26</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:00:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:00:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:21:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:21:45</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:30:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:30:53</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:40:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:40:22</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:49:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:49:14</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:57:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:57:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:21:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:21:08</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:35:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:35:44</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:44:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:44:49</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:54:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:54:14</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:08:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:08:18</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:24:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:24:21</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:33:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:33:58</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:42:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:42:46</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:52:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:52:20</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:04:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:04:46</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:27:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:27:21</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:38:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:38:50</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:48:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:48:26</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:56:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:56:35</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:13:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:13:16</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:23:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:23:18</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:32:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:32:23</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:41:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:41:20</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:50:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:50:30</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:58:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:58:52</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:25:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:25:48</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:38:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:38:16</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:47:13</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:56:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:56:05</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:14:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:14:03</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:26:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:26:55</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:36:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:36:05</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:45:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:45:17</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:54:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:54:07</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:10:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:10:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:29:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:29:55</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:40:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:40:13</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:49:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:49:34</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:58:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:58:12</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:14:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:14:50</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:24:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:24:55</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:33:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:33:37</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:42:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:42:39</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:51:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:51:35</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 09:08:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 09:08:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 09:45:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 09:45:22</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 10:10:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:10:46</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 10:33:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:33:09</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 10:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:42:06</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 10:50:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:50:51</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 10:59:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:59:47</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:19:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:19:52</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:39:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:39:53</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:49:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:49:15</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:57:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:57:26</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:18:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:18:43</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:33:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:33:49</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:43:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:43:35</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 12:52:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 12:52:31</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:09:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:09:18</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:38:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:38:22</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 01:53:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 01:53:26</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:08:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:08:15</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:22:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:22:56</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:32:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:32:30</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:41:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:41:30</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:50:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:50:14</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 02:59:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 02:59:02</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:24:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:24:46</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:38:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:38:50</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:47:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:47:20</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 03:55:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 03:55:38</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:10:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:10:45</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:21:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:21:20</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:29:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:29:34</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:38:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:38:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:48:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:48:00</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 04:56:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 04:56:45</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:15:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:15:19</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:28:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:28:38</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:38:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:38:17</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:47:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:47:51</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 05:56:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 05:56:12</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:11:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:11:58</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:24:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:24:24</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:33:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:33:57</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:42:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:42:58</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 06:51:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 06:51:51</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:04:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:04:06</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:21:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:21:57</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:31:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:31:27</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:40:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:40:25</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:48:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:48:48</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 07:57:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 07:57:37</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:18:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:18:02</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:29:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:29:29</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:38:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:38:26</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:47:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-05.xlsx
+++ b/sigbm_download_2023-01-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 08:47:44</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 08:55:54</t>
   </si>
   <si>
     <t>ID Barragem</t>
